--- a/downloaded_files/GENS004_Lecture-35948.xlsx
+++ b/downloaded_files/GENS004_Lecture-35948.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,294 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ألبرت سامح البير لبيب جرجس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALBERT SAMEH ALBER LABIB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>آنس حمدي عبدالحميد حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anas Hamdy Abdelhameed Hassan Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عبدالحميد السيد عبدالرازق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AHMED MOHAMED ABDELHAMID ELSAYED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ياسر هارون محمد محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yasser Haroun Mohamed Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ادهم عمرو احمد محمد على عامر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adham Amr Ahmed Mohamed Aly Amer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اندرو ارسانيوس ادوارد الفونس فهمى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Arsanios Edward Alfons</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى أمين عاطف أمين قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Amin Atef Amin Kandil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جني محمد حسين السيد حمزه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Mohamed Hussein elsayed hamza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جورج مايكل مقار ثابت قلته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>George Michael Makar Thabet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم هشام فاروق زكي حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem Hesham Farouk Zaki Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد شريف مهدي عبده عيسوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khaled sherif mahdy abdou</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان علاء محمد سيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rawan Alaa Mohamed Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد عمرو حامد محمد هزاع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zeiad amr hamed mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سهيله ماجد محمد ابراهيم سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sohaila Maged Mohamed Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف الدين عمرو لبيب على العكش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seif El-din Amr Labib Aly ElOksh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف الدين محمد عبد المرضي عامر عبد الفضيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seif Eldeen Mohamed Abd Elmordy amer abdelfadilr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>‏سيف تامر محمد علي حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seif tamer Mohamed Aly Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد المنعم محمد عبد المنعم دسوقي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelmonem Mohamed Abdelmonem Desouky</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد خضري محمد صالح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABDELRAHMAN MOHAMMED KHODARY MOHAMMED SALEH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي احمد محمد لطفي عبد المنعم بسيوني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Ahmed Mohamed Lotfy Abdelmonem Basyonii</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر حسام عبد العزيز الكفراوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hossam Abdel Aziz Elkafrawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر خالد عبدالعاطي محمد قطب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Khaled Abdelaty Mohamed Kotb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>قمري محمد سمير عبد المنعم محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kamary Mohamed Samir AbdelMoniem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم رامي محمد بزان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Ramy Mohamed Bazan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم محمد سامح السيد محمد الحامولي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>karim mohamed sameh elsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد  وائل محمد علي عبده فرج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Wael Mohamed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد خالد سيد الغندور ابو المجد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Khaled Sayed ElGhandour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد هشام محمد عبدالعليم محمد صالح الدجوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Hesham Mohamed Abdelalim Mohamed Saleh ELDegwi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى أحمد محمد عبد السلام يوسف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Ahmed Mohamed Abdelsalam Yousif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك اسلام جابر محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malak Eslam Gaber Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250346</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند محمد طايع عوض الله على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohannad Mohamed Tayea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ندي محمد علاء محمد عبدالمنصف هجرس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nada Mohamed Alaa Mohamed Abdelmonsef</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -107,21 +395,35 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -132,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -432,17 +734,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T2"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.250625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.360625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.620625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="5.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.700625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="58.450625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -510,11 +812,1028 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
+      <x:c r="A2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="L2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+      <x:c r="P2" s="2" t="s"/>
+      <x:c r="Q2" s="2" t="s"/>
+      <x:c r="R2" s="2" t="s"/>
+      <x:c r="S2" s="2" t="s"/>
+      <x:c r="T2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:20">
+      <x:c r="A3" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s"/>
+      <x:c r="L3" s="2" t="s"/>
+      <x:c r="M3" s="2" t="s"/>
+      <x:c r="N3" s="2" t="s"/>
+      <x:c r="O3" s="2" t="s"/>
+      <x:c r="P3" s="2" t="s"/>
+      <x:c r="Q3" s="2" t="s"/>
+      <x:c r="R3" s="2" t="s"/>
+      <x:c r="S3" s="2" t="s"/>
+      <x:c r="T3" s="2" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:20">
+      <x:c r="A4" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
+      <x:c r="H4" s="2" t="s"/>
+      <x:c r="I4" s="2" t="s"/>
+      <x:c r="J4" s="2" t="s"/>
+      <x:c r="K4" s="2" t="s"/>
+      <x:c r="L4" s="2" t="s"/>
+      <x:c r="M4" s="2" t="s"/>
+      <x:c r="N4" s="2" t="s"/>
+      <x:c r="O4" s="2" t="s"/>
+      <x:c r="P4" s="2" t="s"/>
+      <x:c r="Q4" s="2" t="s"/>
+      <x:c r="R4" s="2" t="s"/>
+      <x:c r="S4" s="2" t="s"/>
+      <x:c r="T4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:20">
+      <x:c r="A5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS004_Lecture-35948.xlsx
+++ b/downloaded_files/GENS004_Lecture-35948.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Hazem Hesham Farouk Zaki Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه حسن محمود حسن فرغلى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1250279</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1145,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45924.6136497338</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS004_Lecture-35948.xlsx
+++ b/downloaded_files/GENS004_Lecture-35948.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,6 +87,15 @@
     <x:t>Andrew Arsanios Edward Alfons</x:t>
   </x:si>
   <x:si>
+    <x:t>1250365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باسل احمد عبد السلام عبد العال رواش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Basel Ahmed Abdelsalam Abdelaal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250274</x:t>
   </x:si>
   <x:si>
@@ -105,6 +114,15 @@
     <x:t>Jana Mohamed Hussein elsayed hamza</x:t>
   </x:si>
   <x:si>
+    <x:t>1250366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى مصطفى محمود أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Mostafa Mahmoud Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250276</x:t>
   </x:si>
   <x:si>
@@ -132,6 +150,15 @@
     <x:t>Habiba Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>1250370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزه ممدوح محمد علي سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Mamdouh Mohammad Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250279</x:t>
   </x:si>
   <x:si>
@@ -159,6 +186,15 @@
     <x:t>zeiad amr hamed mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1250371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد عمرو عبدالعزيز مصطفى عبدالعزيز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad amr abdelaziz moustafa Abdelaziz</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250294</x:t>
   </x:si>
   <x:si>
@@ -186,6 +222,15 @@
     <x:t>Seif Eldeen Mohamed Abd Elmordy amer abdelfadilr</x:t>
   </x:si>
   <x:si>
+    <x:t>1250413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف الدين نصال صلاح الدين علي سهام الدين صالح صادق الشريف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saif El din Nessal Salah El din Ali seham El din salh sadk</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250298</x:t>
   </x:si>
   <x:si>
@@ -195,6 +240,24 @@
     <x:t>Seif tamer Mohamed Aly Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>1250374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف محمد عبدالحميد علي يوسف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seif Mohamed Abdelhamid Aly Yousef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن علاء جمعه محمد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Alaa Gomaa Mohamed Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250302</x:t>
   </x:si>
   <x:si>
@@ -222,6 +285,24 @@
     <x:t>Ali Ahmed Mohamed Lotfy Abdelmonem Basyonii</x:t>
   </x:si>
   <x:si>
+    <x:t>1250379</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي محمد حسن عبد العال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mohammad Hassan Abdellal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد يسرى ابو المعاطى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OMAR AHMED MOHAMED YOSRI ABOUELMAATI MOHAMED</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250314</x:t>
   </x:si>
   <x:si>
@@ -231,6 +312,15 @@
     <x:t>Omar Hossam Abdel Aziz Elkafrawy</x:t>
   </x:si>
   <x:si>
+    <x:t>1250381</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر حسن ابراهيم محمد السيد فوده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hassan Ibrahim Mohamed Elsayed Fouda</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250315</x:t>
   </x:si>
   <x:si>
@@ -294,6 +384,15 @@
     <x:t>Mohamed Hesham Mohamed Abdelalim Mohamed Saleh ELDegwi</x:t>
   </x:si>
   <x:si>
+    <x:t>1250388</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم حنفي أحمد محمد حافظ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Hanafy Ahmed Mohamed Hafez</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250342</x:t>
   </x:si>
   <x:si>
@@ -321,6 +420,15 @@
     <x:t>Mohannad Mohamed Tayea</x:t>
   </x:si>
   <x:si>
+    <x:t>1250389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مي مدحت عبدالحميد صالح بسام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mai Medhat Abdelhamid Saleh Bassam</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250348</x:t>
   </x:si>
   <x:si>
@@ -328,6 +436,42 @@
   </x:si>
   <x:si>
     <x:t>Nada Mohamed Alaa Mohamed Abdelmonsef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ندى هشام محمد فتحي محمد حموده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nada hisham mohamed fathy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ياسمين سيف الدين أحمد شوقي  عبد الحميد سيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yasmin saifeldin Ahmed Shawky Abdelhamid Saif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250396</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمود معوض على إبراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mahmoud Meawad Ali Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250397</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف هاني شاكر احمد عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hany Shaker Ahmad Abduallah</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -443,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +887,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -751,7 +895,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="36.700625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="48.300625000000004" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="58.450625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1026,7 +1170,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1122,7 +1266,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1154,7 +1298,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45924.6136497338</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1218,7 +1362,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45924.6136497338</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1394,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1378,7 +1522,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1506,7 +1650,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1570,7 +1714,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1746,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1730,7 +1874,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1906,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1826,7 +1970,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,6 +2020,518 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45926.6247367708</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45926.6247367708</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45923.861699456</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45926.6247367708</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45926.6247367708</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45926.6247367708</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45926.6247367708</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +2544,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Proficiency and Capacity Building (GENS004) Location : [51206]51206-60-الشيخ زايد Time : Sunday(13:14)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS004_Lecture-35948.xlsx
+++ b/downloaded_files/GENS004_Lecture-35948.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -436,15 +436,6 @@
   </x:si>
   <x:si>
     <x:t>Nada Mohamed Alaa Mohamed Abdelmonsef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1250390</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ندى هشام محمد فتحي محمد حموده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nada hisham mohamed fathy</x:t>
   </x:si>
   <x:si>
     <x:t>1250395</x:t>
@@ -587,7 +578,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -887,7 +878,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2499,38 +2490,6 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:20">
-      <x:c r="A50" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="C50" s="2" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="E50" s="3">
-        <x:v>45926.6247367708</x:v>
-      </x:c>
-      <x:c r="F50" s="2" t="s"/>
-      <x:c r="G50" s="2" t="s"/>
-      <x:c r="H50" s="2" t="s"/>
-      <x:c r="I50" s="2" t="s"/>
-      <x:c r="J50" s="2" t="s"/>
-      <x:c r="K50" s="2" t="s"/>
-      <x:c r="L50" s="2" t="s"/>
-      <x:c r="M50" s="2" t="s"/>
-      <x:c r="N50" s="2" t="s"/>
-      <x:c r="O50" s="2" t="s"/>
-      <x:c r="P50" s="2" t="s"/>
-      <x:c r="Q50" s="2" t="s"/>
-      <x:c r="R50" s="2" t="s"/>
-      <x:c r="S50" s="2" t="s"/>
-      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS004_Lecture-35948.xlsx
+++ b/downloaded_files/GENS004_Lecture-35948.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -195,6 +195,15 @@
     <x:t>Zeyad amr abdelaziz moustafa Abdelaziz</x:t>
   </x:si>
   <x:si>
+    <x:t>1250410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساره خالد عطيه سيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sara Khalid</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250294</x:t>
   </x:si>
   <x:si>
@@ -384,6 +393,15 @@
     <x:t>Mohamed Hesham Mohamed Abdelalim Mohamed Saleh ELDegwi</x:t>
   </x:si>
   <x:si>
+    <x:t>1250435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم  محمود حسين  الكومى حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mariam mahmoud hussein elkomy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250388</x:t>
   </x:si>
   <x:si>
@@ -427,15 +445,6 @@
   </x:si>
   <x:si>
     <x:t>Mai Medhat Abdelhamid Saleh Bassam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1250348</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ندي محمد علاء محمد عبدالمنصف هجرس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nada Mohamed Alaa Mohamed Abdelmonsef</x:t>
   </x:si>
   <x:si>
     <x:t>1250395</x:t>
@@ -578,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -878,7 +887,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1545,7 +1554,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45927.5089873843</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1641,7 +1650,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45926.6247367708</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1673,7 +1682,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1705,7 +1714,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45926.6247367708</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1769,7 +1778,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1865,7 +1874,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45926.6247367708</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1929,7 +1938,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1961,7 +1970,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45926.6247367708</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1993,7 +2002,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2217,7 +2226,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45926.6247367708</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2249,7 +2258,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45927.5089873843</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2281,7 +2290,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2345,7 +2354,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45926.6247367708</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2490,6 +2499,38 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45926.6247367708</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS004_Lecture-35948.xlsx
+++ b/downloaded_files/GENS004_Lecture-35948.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,6 +202,12 @@
   </x:si>
   <x:si>
     <x:t>Sara Khalid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سهيلة محمد ابو الحمد ابراهيم الدسوقى</x:t>
   </x:si>
   <x:si>
     <x:t>1250294</x:t>
@@ -587,7 +593,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -887,7 +893,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1582,11 +1588,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45930.3607645833</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1609,13 +1613,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45923.861699456</x:v>
@@ -1641,13 +1645,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45923.861699456</x:v>
@@ -1673,16 +1677,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45926.6247367708</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1705,16 +1709,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1737,16 +1741,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45926.6247367708</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1769,13 +1773,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45926.6247367708</x:v>
@@ -1801,16 +1805,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1833,13 +1837,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45923.861699456</x:v>
@@ -1865,13 +1869,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45923.861699456</x:v>
@@ -1897,16 +1901,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45926.6247367708</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1929,13 +1933,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45926.6247367708</x:v>
@@ -1961,16 +1965,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1993,16 +1997,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45926.6247367708</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2025,16 +2029,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2057,13 +2061,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45923.861699456</x:v>
@@ -2089,13 +2093,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45923.861699456</x:v>
@@ -2121,13 +2125,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45923.861699456</x:v>
@@ -2153,13 +2157,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45923.861699456</x:v>
@@ -2185,13 +2189,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45923.861699456</x:v>
@@ -2217,13 +2221,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="s">
+      <x:c r="D41" s="2" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45923.861699456</x:v>
@@ -2249,16 +2253,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="s">
+      <x:c r="D42" s="2" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
       <x:c r="E42" s="3">
-        <x:v>45927.5089873843</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2281,16 +2285,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="s">
+      <x:c r="D43" s="2" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
       <x:c r="E43" s="3">
-        <x:v>45926.6247367708</x:v>
+        <x:v>45927.5089873843</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2313,16 +2317,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="C44" s="2" t="s">
+      <x:c r="D44" s="2" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
       <x:c r="E44" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6247367708</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2345,13 +2349,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="C45" s="2" t="s">
+      <x:c r="D45" s="2" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45923.861699456</x:v>
@@ -2377,13 +2381,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="C46" s="2" t="s">
+      <x:c r="D46" s="2" t="s">
         <x:v>138</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45923.861699456</x:v>
@@ -2409,16 +2413,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="C47" s="2" t="s">
+      <x:c r="D47" s="2" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
       <x:c r="E47" s="3">
-        <x:v>45926.6247367708</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2441,13 +2445,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="C48" s="2" t="s">
+      <x:c r="D48" s="2" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
         <x:v>45926.6247367708</x:v>
@@ -2473,13 +2477,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="C49" s="2" t="s">
+      <x:c r="D49" s="2" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
         <x:v>45926.6247367708</x:v>
@@ -2505,13 +2509,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="C50" s="2" t="s">
+      <x:c r="D50" s="2" t="s">
         <x:v>150</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
         <x:v>45926.6247367708</x:v>
@@ -2531,6 +2535,38 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45926.6247367708</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
